--- a/address-book-web-tests/address-book-web-tests/groups.xlsx
+++ b/address-book-web-tests/address-book-web-tests/groups.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuch\Source\Repos\csharp_training\address-book-web-tests\addressbook-test-data-generators\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuch\Source\Repos\csharp_training\address-book-web-tests\address-book-web-tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -26,31 +26,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>HCL?Y'</t>
-  </si>
-  <si>
-    <t>Q: M)PQQH2IW.=L!*@GRN$ HJ"CaNVT1aYL](+2:?V&lt;6FJX,]BC`26"L::#'-Q#S?8W6RPZ`--3</t>
-  </si>
-  <si>
-    <t>IK! +8$,3T`KVaCO(+-OSJX.TB;-IDS$#*#P8"]WMX@L9,@R-+X#!E&amp;`UT-J^XCQ!\HL^U7&amp;/7"\*,VH"J ?MP$?</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>EV3ZV5PK&gt;EUU9URUKD+VI_GH3X%$2X)HYZS1]&gt;-H:B9"-VHK\\:\[/3G/KG_0M9F&lt;-]@"AY-6D&lt;'FE;&gt;0;)7?.NKG,"1</t>
-  </si>
-  <si>
-    <t>/8O)SG ['H;#-F7T,!L1)OUD"(.@2[X?H6',N^T_;D)TO32I8X:+7!OBC*'L9AI.R\&lt;X&gt;*%/.NWFF!VPWF);@M(</t>
-  </si>
-  <si>
-    <t>GFJDW(</t>
-  </si>
-  <si>
-    <t>[\\"TX;+-S+^J+*]B58VT8.N%TV1YAB9&amp;(\JK`"X&lt;;\J5P?&lt;&gt;J(.&gt;3TCO.^</t>
-  </si>
-  <si>
-    <t>")3M0SXC0@2C3A:8=E965:T/94\S59\=""V3(/9DY],^8F\_Z;&amp;*VHLJ6$4]X%.XEVA1L'0.,V?9-WXU9^Z[3SH;8,^$\=MTO6:C</t>
+    <t>Group1</t>
+  </si>
+  <si>
+    <t>Footer1</t>
+  </si>
+  <si>
+    <t>Header1</t>
+  </si>
+  <si>
+    <t>Group2</t>
+  </si>
+  <si>
+    <t>Header2</t>
+  </si>
+  <si>
+    <t>Footer2</t>
+  </si>
+  <si>
+    <t>Group3</t>
+  </si>
+  <si>
+    <t>Header3</t>
+  </si>
+  <si>
+    <t>Footer3</t>
   </si>
 </sst>
 </file>
@@ -371,7 +371,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -380,10 +382,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
